--- a/Essential Statistics for Data Analysis using Excel/Module1QuizFiles/Module 1_Quiz Data_BoxPlot.xlsx
+++ b/Essential Statistics for Data Analysis using Excel/Module1QuizFiles/Module 1_Quiz Data_BoxPlot.xlsx
@@ -14,12 +14,35 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$147</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$E$2:$E$147</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$2:$A$147</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$2:$B$147</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$C$2:$C$147</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$D$2:$D$147</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$E$2:$E$147</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$2:$B$147</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$147</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$2:$D$147</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$E$2:$E$147</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
   <si>
     <t>Dell</t>
   </si>
@@ -56,17 +79,62 @@
   <si>
     <t>Pfe=Pfizer</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -86,7 +154,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,22 +162,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -148,6 +263,120 @@
     <cx:plotArea>
       <cx:plotAreaRegion/>
     </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.18</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{452EDCB6-BB7F-4FAD-B690-E41F02FC3981}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:v>Dell</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3F0ADE84-7BA7-4C1F-9010-238BF238BF27}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:v>INTC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D99C4A5E-EA6B-4D2B-B767-72FF262DE6DA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:v>MSFT</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{88E94A32-8F57-4236-9798-44C93A6F45D1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:v>NT</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{84AB21F8-426D-499B-A65B-8502262BDF7F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:v>PFE</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -192,6 +421,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -673,6 +942,523 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="409">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" spc="100">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -758,7 +1544,99 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3714F176-2109-4E22-98EA-4C2B96D44B29}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3333750" y="781049"/>
+              <a:ext cx="5457825" cy="3552825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E147" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:E147"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Dell" dataDxfId="6"/>
+    <tableColumn id="2" name="INTC" dataDxfId="5"/>
+    <tableColumn id="3" name="MSFT" dataDxfId="4"/>
+    <tableColumn id="4" name="NT" dataDxfId="3"/>
+    <tableColumn id="5" name="PFE" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,15 +1960,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E442"/>
+  <dimension ref="A1:AA442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="6.5" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.28211284513805529</v>
       </c>
@@ -1124,7 +2006,7 @@
         <v>7.1411073003429706E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.15823970037453181</v>
       </c>
@@ -1141,7 +2023,7 @@
         <v>5.0588773293700706E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>-8.4074373484236103E-2</v>
       </c>
@@ -1158,7 +2040,7 @@
         <v>2.5028565210294018E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>-8.0317740511915245E-2</v>
       </c>
@@ -1175,7 +2057,7 @@
         <v>2.2035278154681124E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>-4.9904030710172707E-2</v>
       </c>
@@ -1192,7 +2074,7 @@
         <v>3.3455472359407213E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>-0.17171717171717171</v>
       </c>
@@ -1209,7 +2091,7 @@
         <v>-4.3400021170742077E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>-9.512195121951221E-2</v>
       </c>
@@ -1225,8 +2107,28 @@
       <c r="E8" s="1">
         <v>4.310058647781348E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.1051212938005391</v>
       </c>
@@ -1242,8 +2144,18 @@
       <c r="E9" s="1">
         <v>7.6062165172651672E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7.9268292682926733E-2</v>
       </c>
@@ -1259,8 +2171,38 @@
       <c r="E10" s="1">
         <v>-5.6193621531030096E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="4">
+        <v>5.4359891953622064E-2</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="4">
+        <v>3.3963212968873037E-2</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="4">
+        <v>3.7357525827596286E-2</v>
+      </c>
+      <c r="X10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>2.7021873415156314E-2</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>2.5607481066567388E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>-7.3446327683615725E-2</v>
       </c>
@@ -1276,8 +2218,38 @@
       <c r="E11" s="1">
         <v>-5.94358796411045E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="4">
+        <v>1.3769286081331353E-2</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="4">
+        <v>9.4064135103730153E-3</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W11" s="4">
+        <v>8.6992456304403158E-3</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>9.0610692243602124E-3</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>6.4589640152974918E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>-0.14268292682926831</v>
       </c>
@@ -1293,8 +2265,38 @@
       <c r="E12" s="1">
         <v>0.14351217455465384</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" s="4">
+        <v>5.6507188125057763E-2</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="4">
+        <v>2.8107807150778451E-2</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12" s="4">
+        <v>3.7590002784764154E-2</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>2.2034896622502954E-2</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>2.6407853741520011E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3.6984352773826529E-2</v>
       </c>
@@ -1310,8 +2312,38 @@
       <c r="E13" s="1">
         <v>6.540074664700174E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="U13" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA13" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>1.7832647462277029E-2</v>
       </c>
@@ -1327,8 +2359,38 @@
       <c r="E14" s="1">
         <v>-9.041356636096079E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0.1663749167443026</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" s="4">
+        <v>0.11365812689247824</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0.10511338488820204</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0.10948531600786736</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>7.8043959138632588E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>-0.15768194070080865</v>
       </c>
@@ -1344,8 +2406,38 @@
       <c r="E15" s="1">
         <v>-1.4537041079146159E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="4">
+        <v>2.768061292167362E-2</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="4">
+        <v>1.2918169808706685E-2</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W15" s="4">
+        <v>1.1048823682655303E-2</v>
+      </c>
+      <c r="X15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>1.1987034421342576E-2</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>6.0908595580325521E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>-4.159999999999997E-2</v>
       </c>
@@ -1361,8 +2453,38 @@
       <c r="E16" s="1">
         <v>0.1047222468326392</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" s="4">
+        <v>-0.48193453607675263</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U16" s="4">
+        <v>1.2727432265123819</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" s="4">
+        <v>0.94887168834596425</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>1.1424550104795563</v>
+      </c>
+      <c r="Z16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>-0.10647580012533542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>-4.3405676126878213E-2</v>
       </c>
@@ -1378,8 +2500,38 @@
       <c r="E17" s="1">
         <v>-6.2394738952602356E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="4">
+        <v>2.7055756256448169E-2</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="4">
+        <v>-0.48340108491067557</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="4">
+        <v>5.250211676471965E-2</v>
+      </c>
+      <c r="X17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>1.2534535253864335E-2</v>
+      </c>
+      <c r="Z17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>-1.0415734936328185E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>-0.15881326352530536</v>
       </c>
@@ -1395,8 +2547,38 @@
       <c r="E18" s="1">
         <v>-1.44127961679925E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0.78165604937565458</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0.73973196089847804</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0.66868134070602392</v>
+      </c>
+      <c r="X18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>0.6898643264140365</v>
+      </c>
+      <c r="Z18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0.43624517343781105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.35062240663900424</v>
       </c>
@@ -1412,8 +2594,38 @@
       <c r="E19" s="1">
         <v>-0.13117812974614876</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="4">
+        <v>-0.32555370326268157</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="4">
+        <v>-0.44490450113530117</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W19" s="4">
+        <v>-0.34352941176470586</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>-0.32499704386898426</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>-0.1707215894296924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.21966205837173566</v>
       </c>
@@ -1429,8 +2641,38 @@
       <c r="E20" s="1">
         <v>2.756967335930461E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0.45610234611297307</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="4">
+        <v>0.29482745976317692</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="4">
+        <v>0.32515192894131806</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0.3648672825450523</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0.26552358400811865</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.11460957178841306</v>
       </c>
@@ -1446,8 +2688,38 @@
       <c r="E21" s="1">
         <v>-6.3915621658403796E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="4">
+        <v>7.936544225228821</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U21" s="4">
+        <v>4.9586290934554631</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="W21" s="4">
+        <v>5.4541987708290574</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>3.9451935186128217</v>
+      </c>
+      <c r="Z21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>3.7386922357188386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.29491525423728815</v>
       </c>
@@ -1463,8 +2735,38 @@
       <c r="E22" s="1">
         <v>0.17238693597798424</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="R22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="5">
+        <v>146</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" s="5">
+        <v>146</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W22" s="5">
+        <v>146</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>146</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.14746945898778371</v>
       </c>
@@ -1481,7 +2783,7 @@
         <v>-2.6573364630851505E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>-6.9201520912547609E-2</v>
       </c>
@@ -1498,7 +2800,7 @@
         <v>0.18130943173028793</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1515,7 +2817,7 @@
         <v>-5.492219996918804E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>-0.25571895424836599</v>
       </c>
@@ -1532,7 +2834,7 @@
         <v>-5.2979052897548064E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.21514818880351269</v>
       </c>
@@ -1549,7 +2851,7 @@
         <v>3.0072107505735971E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.23486901535682006</v>
       </c>
@@ -1566,7 +2868,7 @@
         <v>0.11896428287327965</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.40965618141916627</v>
       </c>
@@ -1583,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.22314478463933565</v>
       </c>
@@ -1600,7 +2902,7 @@
         <v>0.11299896918209942</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.11582520152736538</v>
       </c>
@@ -1617,7 +2919,7 @@
         <v>0.17587506387327539</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.12889733840304177</v>
       </c>
@@ -3634,24 +4936,27 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Used_x0020_in_x0020_Chapter xmlns="d1607db4-bd3f-4f82-a312-bf7e283d0a6b">true</Used_x0020_in_x0020_Chapter>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3715,6 +5020,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18EA55C0-10B3-4C61-A3CD-D9A256E040A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFF6F118-983D-40B8-B501-4DD378BE346B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3725,14 +5038,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18EA55C0-10B3-4C61-A3CD-D9A256E040A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
